--- a/DSP_H2_2025/Tháng 9/NewEleven_20250924_20250924_DSP Product.xlsx
+++ b/DSP_H2_2025/Tháng 9/NewEleven_20250924_20250924_DSP Product.xlsx
@@ -185,10 +185,10 @@
     <t>B0DH7Y6RDX-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0DH7PQ1RX-Birthday-Tumblers</t>
+    <t>B0DHCFTYVW-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0DHCFTYVW-Birthday-Tumblers</t>
+    <t>B0DH7PQ1RX-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0F2T4JDF7-Moms-Cards</t>
@@ -272,10 +272,10 @@
     <t>B0DLVS7R7V-Retirement-ornaments</t>
   </si>
   <si>
-    <t>B0CXXJ751C-Retirement-cfglass</t>
+    <t>B09ZYBDMZ1-Retirement-tumblers</t>
   </si>
   <si>
-    <t>B09ZYBDMZ1-Retirement-tumblers</t>
+    <t>B0CXXJ751C-Retirement-cfglass</t>
   </si>
   <si>
     <t>B0DXVPDSJK-Moms-REC</t>
@@ -290,22 +290,22 @@
     <t>B08ZYGT8SH-Men,Dads-Apron</t>
   </si>
   <si>
+    <t>B0F59S8H6T-Dads-Card</t>
+  </si>
+  <si>
     <t>B0F59VYMYR-Dads,Husband-Card</t>
   </si>
   <si>
-    <t>B0F59S8H6T-Dads-Card</t>
-  </si>
-  <si>
     <t>B097B9SY89-Dads - tumblers</t>
-  </si>
-  <si>
-    <t>B0CKYJ8WLN-FatherDayTumbler(Grandpa)</t>
   </si>
   <si>
     <t>B0F59Z29ZR-Dads,Grandpa-Card</t>
   </si>
   <si>
     <t>B0F2TDKZ4N-Dads-Card</t>
+  </si>
+  <si>
+    <t>B0CKYJ8WLN-FatherDayTumbler(Grandpa)</t>
   </si>
   <si>
     <t>B08CDFWN1Q-Dads,Men-Apron</t>
@@ -329,40 +329,40 @@
     <t>B0CY4MC1GJ-FatherDayTumbler</t>
   </si>
   <si>
-    <t>B0B9SF2R4R-Moms-Coffee Glass</t>
+    <t>B0BHWDNYVL-Moms - Cf glass</t>
   </si>
   <si>
-    <t>B0BHWDNYVL-Moms - Cf glass</t>
+    <t>B0B9SF2R4R-Moms-Coffee Glass</t>
   </si>
   <si>
     <t>B0CJX4XSXB-Moms - Tumblers</t>
   </si>
   <si>
-    <t>B0D1K731RT-Moms-Cf glass</t>
+    <t>B0C9BZRC4K-Moms - Cf glass</t>
   </si>
   <si>
-    <t>B0C9BZRC4K-Moms - Cf glass</t>
+    <t>B0D1K731RT-Moms-Cf glass</t>
   </si>
   <si>
     <t>B0DCJM56W3-Moms-Cf glass</t>
   </si>
   <si>
-    <t>B0CN93CWYD-Birthday-Tumblers</t>
+    <t>B0CLYRNFBT-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0CN93LZ5M-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0CKYN27VS-Birthday-Cf glass</t>
+    <t>B0CKYM9HQW-Birthday-Cf glass</t>
   </si>
   <si>
     <t>B0DH7X2GCX-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B09TT1GGMM-Birthday-Tumblers</t>
+    <t>B0CXXM1YD1-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CM5T2F1V-Birthday-Wineglass</t>
+  </si>
+  <si>
+    <t>B0CN93CWYD-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DCJQ2SKV-Moms-Cf glass</t>
@@ -371,40 +371,40 @@
     <t>B0DJT3P5FK0-Birthday Ornaments</t>
   </si>
   <si>
-    <t>B0CLYRNFBT-Birthday-Tumblers</t>
+    <t>B0CKYN27VS-Birthday-Cf glass</t>
   </si>
   <si>
     <t>B0978WGWY4-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CXXM1YD1-Birthday-Tumblers</t>
+    <t>B0CN92WPN9-Birthday-Tumblers</t>
   </si>
   <si>
-    <t>B0CN92WPN9-Birthday-Tumblers</t>
+    <t>B0CN8ZP46N-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0CM5QBW1Z-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CKYM9HQW-Birthday-Cf glass</t>
+    <t>B0CT8NQBN5-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0D5YHG24C-Birthday-Tumblers</t>
   </si>
   <si>
+    <t>B09TT1GGMM-Birthday-Tumblers</t>
+  </si>
+  <si>
     <t>B0CM5SQT4T-Birthday-Wineglass</t>
   </si>
   <si>
-    <t>B0CT8NQBN5-Birthday-Tumblers</t>
+    <t>B0F17MLPQ4-Dads,Grandpa-Tumbler</t>
   </si>
   <si>
-    <t>B0CN8ZP46N-Birthday-Tumblers</t>
+    <t>B0CN93LZ5M-Birthday-Tumblers</t>
   </si>
   <si>
     <t>B0DH886R83-Birthday-Tumblers</t>
-  </si>
-  <si>
-    <t>B0F17MLPQ4-Dads,Grandpa-Tumbler</t>
   </si>
   <si>
     <t>B088GX79HT-Dads - tumblers</t>
@@ -3868,7 +3868,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="7">
-        <v>14.15</v>
+        <v>14.1</v>
       </c>
       <c r="D2" s="7">
         <v>25.97</v>
@@ -3877,7 +3877,7 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="7">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="G2" s="6">
         <v>1.84</v>
@@ -3889,31 +3889,31 @@
         <v>0.0008</v>
       </c>
       <c r="J2" s="8">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="K2" s="8">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="L2" s="7">
-        <v>7.08</v>
+        <v>7.05</v>
       </c>
       <c r="M2" s="6">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="N2" s="8">
         <v>0</v>
       </c>
       <c r="O2" s="9">
-        <v>47607</v>
+        <v>47467</v>
       </c>
       <c r="P2" s="9">
         <v>37</v>
       </c>
       <c r="Q2" s="9">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="R2" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S2" s="9">
         <v>2</v>
@@ -3928,25 +3928,25 @@
         <v>0.38</v>
       </c>
       <c r="W2" s="9">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="X2" s="8">
-        <v>0.0009</v>
+        <v>0.0011</v>
       </c>
       <c r="Y2" s="7">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2" s="8">
         <v>0.0001</v>
       </c>
       <c r="AB2" s="7">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="AC2" s="7">
-        <v>3.54</v>
+        <v>2.82</v>
       </c>
       <c r="AD2" s="7">
         <v>19.98</v>
@@ -3961,7 +3961,7 @@
         <v>1.84</v>
       </c>
       <c r="AH2" s="6">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AI2" s="9">
         <v>1</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="AL2" s="7">
-        <v>14.15</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="3" spans="1:38" customHeight="1" ht="90">
@@ -3982,19 +3982,19 @@
         <v>39</v>
       </c>
       <c r="C3" s="7">
-        <v>7.52</v>
+        <v>7.49</v>
       </c>
       <c r="D3" s="7">
         <v>19.98</v>
       </c>
       <c r="E3" s="7">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="F3" s="7">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="G3" s="6">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="H3" s="8">
         <v>1</v>
@@ -4003,31 +4003,31 @@
         <v>0.0036</v>
       </c>
       <c r="J3" s="8">
-        <v>0.0052</v>
+        <v>0.01</v>
       </c>
       <c r="K3" s="8">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
       <c r="L3" s="7">
-        <v>7.52</v>
+        <v>7.49</v>
       </c>
       <c r="M3" s="6">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="N3" s="8">
         <v>0</v>
       </c>
       <c r="O3" s="9">
-        <v>4218</v>
+        <v>4191</v>
       </c>
       <c r="P3" s="9">
         <v>15</v>
       </c>
       <c r="Q3" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="R3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
@@ -4042,25 +4042,25 @@
         <v>0.5</v>
       </c>
       <c r="W3" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="X3" s="8">
-        <v>0.0052</v>
+        <v>0.01</v>
       </c>
       <c r="Y3" s="7">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="Z3" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="8">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
       <c r="AB3" s="7">
-        <v>7.52</v>
+        <v>3.74</v>
       </c>
       <c r="AC3" s="7">
-        <v>7.52</v>
+        <v>3.74</v>
       </c>
       <c r="AD3" s="7">
         <v>19.98</v>
@@ -4072,10 +4072,10 @@
         <v>19.98</v>
       </c>
       <c r="AG3" s="6">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="AH3" s="6">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="AI3" s="9">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>0.0002</v>
       </c>
       <c r="AL3" s="7">
-        <v>7.52</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="4" spans="1:38" customHeight="1" ht="90">
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="7">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="D4" s="7">
         <v>19.98</v>
@@ -4105,43 +4105,43 @@
         <v>1</v>
       </c>
       <c r="F4" s="7">
-        <v>0.56</v>
+        <v>0.44</v>
       </c>
       <c r="G4" s="6">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="H4" s="8">
         <v>1</v>
       </c>
       <c r="I4" s="8">
-        <v>0.0015</v>
+        <v>0.0013</v>
       </c>
       <c r="J4" s="8">
-        <v>0.0018</v>
+        <v>0.0023</v>
       </c>
       <c r="K4" s="8">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="L4" s="7">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="M4" s="6">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>6146</v>
+        <v>6103</v>
       </c>
       <c r="P4" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
@@ -4153,16 +4153,16 @@
         <v>1</v>
       </c>
       <c r="V4" s="7">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="W4" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X4" s="8">
-        <v>0.0018</v>
+        <v>0.0021</v>
       </c>
       <c r="Y4" s="7">
-        <v>0.56</v>
+        <v>0.47</v>
       </c>
       <c r="Z4" s="9">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="7">
-        <v>0</v>
+        <v>6.13</v>
       </c>
       <c r="AC4" s="7">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>19.98</v>
       </c>
       <c r="AG4" s="6">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="AH4" s="6">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="AI4" s="9">
         <v>1</v>
@@ -4201,7 +4201,7 @@
         <v>0.0002</v>
       </c>
       <c r="AL4" s="7">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="5" spans="1:38" customHeight="1" ht="90">
@@ -4210,73 +4210,73 @@
         <v>41</v>
       </c>
       <c r="C5" s="7">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="F5" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.0057</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.0081</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>3716</v>
+      </c>
+      <c r="P5" s="9">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>30</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
         <v>0.27</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.0059</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.0056</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>3747</v>
-      </c>
-      <c r="P5" s="9">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>21</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9">
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0.26</v>
-      </c>
       <c r="W5" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="X5" s="8">
-        <v>0.0048</v>
+        <v>0.0073</v>
       </c>
       <c r="Y5" s="7">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="Z5" s="9">
         <v>0</v>
@@ -4324,19 +4324,19 @@
         <v>42</v>
       </c>
       <c r="C6" s="7">
-        <v>5.64</v>
+        <v>5.61</v>
       </c>
       <c r="D6" s="7">
         <v>55.94</v>
       </c>
       <c r="E6" s="7">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="F6" s="7">
-        <v>0.56</v>
+        <v>0.43</v>
       </c>
       <c r="G6" s="6">
-        <v>9.92</v>
+        <v>9.97</v>
       </c>
       <c r="H6" s="8">
         <v>1</v>
@@ -4345,28 +4345,28 @@
         <v>0.0051</v>
       </c>
       <c r="J6" s="8">
-        <v>0.0027</v>
+        <v>0.0035</v>
       </c>
       <c r="K6" s="8">
         <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M6" s="6">
-        <v>9.92</v>
+        <v>9.97</v>
       </c>
       <c r="N6" s="8">
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>3744</v>
+        <v>3702</v>
       </c>
       <c r="P6" s="9">
         <v>19</v>
       </c>
       <c r="Q6" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R6" s="9">
         <v>0</v>
@@ -4384,13 +4384,13 @@
         <v>0.3</v>
       </c>
       <c r="W6" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X6" s="8">
-        <v>0.0027</v>
+        <v>0.0035</v>
       </c>
       <c r="Y6" s="7">
-        <v>0.56</v>
+        <v>0.43</v>
       </c>
       <c r="Z6" s="9">
         <v>0</v>
@@ -4414,10 +4414,10 @@
         <v>55.94</v>
       </c>
       <c r="AG6" s="6">
-        <v>9.92</v>
+        <v>9.97</v>
       </c>
       <c r="AH6" s="6">
-        <v>9.92</v>
+        <v>9.97</v>
       </c>
       <c r="AI6" s="9">
         <v>3</v>
@@ -4429,7 +4429,7 @@
         <v>0.0008</v>
       </c>
       <c r="AL6" s="7">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="7" spans="1:38" customHeight="1" ht="90">
@@ -4438,16 +4438,16 @@
         <v>43</v>
       </c>
       <c r="C7" s="7">
-        <v>5.56</v>
+        <v>5.54</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
       </c>
       <c r="E7" s="7">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="F7" s="7">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="G7" s="6">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>0.0062</v>
       </c>
       <c r="J7" s="8">
-        <v>0.0041</v>
+        <v>0.0044</v>
       </c>
       <c r="K7" s="8">
         <v>0</v>
@@ -4474,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>3412</v>
+        <v>3382</v>
       </c>
       <c r="P7" s="9">
         <v>21</v>
       </c>
       <c r="Q7" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R7" s="9">
         <v>0</v>
@@ -4498,13 +4498,13 @@
         <v>0.26</v>
       </c>
       <c r="W7" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X7" s="8">
-        <v>0.0041</v>
+        <v>0.0044</v>
       </c>
       <c r="Y7" s="7">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="Z7" s="9">
         <v>0</v>
@@ -4552,16 +4552,16 @@
         <v>44</v>
       </c>
       <c r="C8" s="7">
-        <v>5.56</v>
+        <v>5.54</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="F8" s="7">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0.0054</v>
       </c>
       <c r="J8" s="8">
-        <v>0.0057</v>
+        <v>0.0068</v>
       </c>
       <c r="K8" s="8">
         <v>0.0005</v>
@@ -4588,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="9">
-        <v>3702</v>
+        <v>3678</v>
       </c>
       <c r="P8" s="9">
         <v>20</v>
       </c>
       <c r="Q8" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="R8" s="9">
         <v>2</v>
@@ -4612,13 +4612,13 @@
         <v>0.28</v>
       </c>
       <c r="W8" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X8" s="8">
-        <v>0.0054</v>
+        <v>0.0065</v>
       </c>
       <c r="Y8" s="7">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="9">
         <v>1</v>
@@ -4627,10 +4627,10 @@
         <v>0.0003</v>
       </c>
       <c r="AB8" s="7">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="AC8" s="7">
-        <v>5.56</v>
+        <v>5.54</v>
       </c>
       <c r="AD8" s="7">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="7">
-        <v>5.5</v>
+        <v>5.47</v>
       </c>
       <c r="D9" s="7">
         <v>0</v>
@@ -4675,7 +4675,7 @@
         <v>1.53</v>
       </c>
       <c r="F9" s="7">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
@@ -4684,13 +4684,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0056</v>
+        <v>0.0053</v>
       </c>
       <c r="J9" s="8">
-        <v>0.0064</v>
+        <v>0.0087</v>
       </c>
       <c r="K9" s="8">
-        <v>0</v>
+        <v>0.0011</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -4702,16 +4702,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="9">
-        <v>3596</v>
+        <v>3565</v>
       </c>
       <c r="P9" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R9" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S9" s="9">
         <v>0</v>
@@ -4723,28 +4723,28 @@
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="W9" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="X9" s="8">
-        <v>0.0047</v>
+        <v>0.0059</v>
       </c>
       <c r="Y9" s="7">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="Z9" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="8">
-        <v>0</v>
+        <v>0.0008</v>
       </c>
       <c r="AB9" s="7">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AC9" s="7">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD9" s="7">
         <v>0</v>
@@ -4780,19 +4780,19 @@
         <v>46</v>
       </c>
       <c r="C10" s="7">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="D10" s="7">
         <v>19.98</v>
       </c>
       <c r="E10" s="7">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="F10" s="7">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="G10" s="6">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="H10" s="8">
         <v>0</v>
@@ -4801,31 +4801,31 @@
         <v>0.0057</v>
       </c>
       <c r="J10" s="8">
-        <v>0.0039</v>
+        <v>0.0057</v>
       </c>
       <c r="K10" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="L10" s="7">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
       <c r="M10" s="6">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="N10" s="8">
         <v>0</v>
       </c>
       <c r="O10" s="9">
-        <v>3359</v>
+        <v>3323</v>
       </c>
       <c r="P10" s="9">
         <v>19</v>
       </c>
       <c r="Q10" s="9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R10" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S10" s="9">
         <v>1</v>
@@ -4840,25 +4840,25 @@
         <v>0.29</v>
       </c>
       <c r="W10" s="9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="X10" s="8">
-        <v>0.0039</v>
+        <v>0.0057</v>
       </c>
       <c r="Y10" s="7">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="Z10" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA10" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AB10" s="7">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AC10" s="7">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD10" s="7">
         <v>19.98</v>
@@ -4885,7 +4885,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL10" s="7">
-        <v>5.47</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="11" spans="1:38" customHeight="1" ht="90">
@@ -4894,13 +4894,13 @@
         <v>47</v>
       </c>
       <c r="C11" s="7">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="D11" s="7">
         <v>0</v>
       </c>
       <c r="E11" s="7">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="F11" s="7">
         <v>0.26</v>
@@ -4915,7 +4915,7 @@
         <v>0.0048</v>
       </c>
       <c r="J11" s="8">
-        <v>0.0059</v>
+        <v>0.006</v>
       </c>
       <c r="K11" s="8">
         <v>0</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <v>3550</v>
+        <v>3524</v>
       </c>
       <c r="P11" s="9">
         <v>17</v>
@@ -4957,7 +4957,7 @@
         <v>21</v>
       </c>
       <c r="X11" s="8">
-        <v>0.0059</v>
+        <v>0.006</v>
       </c>
       <c r="Y11" s="7">
         <v>0.26</v>
@@ -5008,16 +5008,16 @@
         <v>48</v>
       </c>
       <c r="C12" s="7">
-        <v>5.37</v>
+        <v>5.35</v>
       </c>
       <c r="D12" s="7">
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="7">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G12" s="6">
         <v>0</v>
@@ -5026,10 +5026,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0069</v>
+        <v>0.007</v>
       </c>
       <c r="J12" s="8">
-        <v>0.0061</v>
+        <v>0.007</v>
       </c>
       <c r="K12" s="8">
         <v>0.0003</v>
@@ -5044,13 +5044,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="9">
-        <v>3599</v>
+        <v>3571</v>
       </c>
       <c r="P12" s="9">
         <v>25</v>
       </c>
       <c r="Q12" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R12" s="9">
         <v>1</v>
@@ -5068,13 +5068,13 @@
         <v>0.21</v>
       </c>
       <c r="W12" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X12" s="8">
-        <v>0.0058</v>
+        <v>0.0067</v>
       </c>
       <c r="Y12" s="7">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="Z12" s="9">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="7">
-        <v>5.37</v>
+        <v>5.35</v>
       </c>
       <c r="AC12" s="7">
         <v>0</v>
@@ -5122,16 +5122,16 @@
         <v>49</v>
       </c>
       <c r="C13" s="7">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="D13" s="7">
         <v>0</v>
       </c>
       <c r="E13" s="7">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="F13" s="7">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
@@ -5140,55 +5140,55 @@
         <v>0</v>
       </c>
       <c r="I13" s="8">
+        <v>0.0041</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.0061</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
+        <v>3615</v>
+      </c>
+      <c r="P13" s="9">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>22</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0</v>
+      </c>
+      <c r="T13" s="9">
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <v>0</v>
+      </c>
+      <c r="V13" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="W13" s="9">
+        <v>16</v>
+      </c>
+      <c r="X13" s="8">
         <v>0.0044</v>
       </c>
-      <c r="J13" s="8">
-        <v>0.0052</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>3659</v>
-      </c>
-      <c r="P13" s="9">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>19</v>
-      </c>
-      <c r="R13" s="9">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="7">
+      <c r="Y13" s="7">
         <v>0.33</v>
-      </c>
-      <c r="W13" s="9">
-        <v>13</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0.0036</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>0.41</v>
       </c>
       <c r="Z13" s="9">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>5.32</v>
+        <v>5.3</v>
       </c>
       <c r="D14" s="7">
         <v>0</v>
@@ -5245,7 +5245,7 @@
         <v>1.55</v>
       </c>
       <c r="F14" s="7">
-        <v>0.53</v>
+        <v>0.38</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
       <c r="J14" s="8">
-        <v>0.0029</v>
+        <v>0.0041</v>
       </c>
       <c r="K14" s="8">
         <v>0</v>
@@ -5272,13 +5272,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="9">
-        <v>3437</v>
+        <v>3413</v>
       </c>
       <c r="P14" s="9">
         <v>7</v>
       </c>
       <c r="Q14" s="9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R14" s="9">
         <v>0</v>
@@ -5296,13 +5296,13 @@
         <v>0.76</v>
       </c>
       <c r="W14" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X14" s="8">
-        <v>0.0026</v>
+        <v>0.0038</v>
       </c>
       <c r="Y14" s="7">
-        <v>0.59</v>
+        <v>0.41</v>
       </c>
       <c r="Z14" s="9">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>51</v>
       </c>
       <c r="C15" s="7">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="F15" s="7">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -5368,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <v>0.0029</v>
+        <v>0.003</v>
       </c>
       <c r="J15" s="8">
-        <v>0.0056</v>
+        <v>0.0077</v>
       </c>
       <c r="K15" s="8">
         <v>0</v>
@@ -5386,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="9">
-        <v>3392</v>
+        <v>3359</v>
       </c>
       <c r="P15" s="9">
         <v>10</v>
       </c>
       <c r="Q15" s="9">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="R15" s="9">
         <v>0</v>
@@ -5410,13 +5410,13 @@
         <v>0.52</v>
       </c>
       <c r="W15" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X15" s="8">
-        <v>0.0047</v>
+        <v>0.0068</v>
       </c>
       <c r="Y15" s="7">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z15" s="9">
         <v>0</v>
@@ -5464,16 +5464,16 @@
         <v>52</v>
       </c>
       <c r="C16" s="7">
-        <v>5.21</v>
+        <v>5.19</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="F16" s="7">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="G16" s="6">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>0.0032</v>
       </c>
       <c r="J16" s="8">
-        <v>0.0064</v>
+        <v>0.0074</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
@@ -5500,13 +5500,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="9">
-        <v>3429</v>
+        <v>3394</v>
       </c>
       <c r="P16" s="9">
         <v>11</v>
       </c>
       <c r="Q16" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R16" s="9">
         <v>0</v>
@@ -5524,13 +5524,13 @@
         <v>0.47</v>
       </c>
       <c r="W16" s="9">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X16" s="8">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
       <c r="Y16" s="7">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="Z16" s="9">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>53</v>
       </c>
       <c r="C17" s="7">
-        <v>5.12</v>
+        <v>5.11</v>
       </c>
       <c r="D17" s="7">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>0.29</v>
       </c>
       <c r="F17" s="7">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="G17" s="6">
         <v>0</v>
@@ -5614,13 +5614,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="9">
-        <v>17741</v>
+        <v>17685</v>
       </c>
       <c r="P17" s="9">
         <v>13</v>
       </c>
       <c r="Q17" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R17" s="9">
         <v>0</v>
@@ -5692,16 +5692,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="7">
-        <v>5.06</v>
+        <v>5.04</v>
       </c>
       <c r="D18" s="7">
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="F18" s="7">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="G18" s="6">
         <v>0</v>
@@ -5713,10 +5713,10 @@
         <v>0.0047</v>
       </c>
       <c r="J18" s="8">
-        <v>0.005</v>
+        <v>0.0101</v>
       </c>
       <c r="K18" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="L18" s="7">
         <v>0</v>
@@ -5728,16 +5728,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="9">
-        <v>3196</v>
+        <v>3168</v>
       </c>
       <c r="P18" s="9">
         <v>15</v>
       </c>
       <c r="Q18" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="R18" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="9">
         <v>0</v>
@@ -5752,13 +5752,13 @@
         <v>0.34</v>
       </c>
       <c r="W18" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="X18" s="8">
-        <v>0.005</v>
+        <v>0.0076</v>
       </c>
       <c r="Y18" s="7">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="Z18" s="9">
         <v>0</v>
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="AB18" s="7">
-        <v>0</v>
+        <v>5.04</v>
       </c>
       <c r="AC18" s="7">
         <v>0</v>
@@ -5806,13 +5806,13 @@
         <v>55</v>
       </c>
       <c r="C19" s="7">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="D19" s="7">
         <v>0</v>
       </c>
       <c r="E19" s="7">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F19" s="7">
         <v>0.5</v>
@@ -5824,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>0.0042</v>
+        <v>0.0043</v>
       </c>
       <c r="J19" s="8">
         <v>0.0033</v>
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>3071</v>
+        <v>3039</v>
       </c>
       <c r="P19" s="9">
         <v>13</v>
@@ -5881,10 +5881,10 @@
         <v>0.0003</v>
       </c>
       <c r="AB19" s="7">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="AC19" s="7">
-        <v>5.04</v>
+        <v>5.01</v>
       </c>
       <c r="AD19" s="7">
         <v>0</v>
@@ -5920,34 +5920,34 @@
         <v>56</v>
       </c>
       <c r="C20" s="7">
-        <v>4.91</v>
+        <v>4.9</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>22.98</v>
       </c>
       <c r="E20" s="7">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="F20" s="7">
-        <v>0.29</v>
+        <v>0.54</v>
       </c>
       <c r="G20" s="6">
-        <v>0</v>
+        <v>4.69</v>
       </c>
       <c r="H20" s="8">
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <v>0.0043</v>
+        <v>0.003</v>
       </c>
       <c r="J20" s="8">
-        <v>0.0053</v>
+        <v>0.003</v>
       </c>
       <c r="K20" s="8">
         <v>0.0003</v>
       </c>
       <c r="L20" s="7">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
@@ -5956,70 +5956,70 @@
         <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>3231</v>
+        <v>2993</v>
       </c>
       <c r="P20" s="9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R20" s="9">
         <v>1</v>
       </c>
       <c r="S20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="9">
         <v>0</v>
       </c>
       <c r="V20" s="7">
-        <v>0.35</v>
+        <v>0.54</v>
       </c>
       <c r="W20" s="9">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="X20" s="8">
-        <v>0.0053</v>
+        <v>0.0027</v>
       </c>
       <c r="Y20" s="7">
-        <v>0.29</v>
+        <v>0.61</v>
       </c>
       <c r="Z20" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="8">
         <v>0.0003</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>4.91</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>4.91</v>
-      </c>
-      <c r="AD20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="8">
-        <v>0</v>
       </c>
       <c r="AK20" s="8">
         <v>0</v>
@@ -6034,34 +6034,34 @@
         <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>4.91</v>
+        <v>4.89</v>
       </c>
       <c r="D21" s="7">
-        <v>22.98</v>
+        <v>0</v>
       </c>
       <c r="E21" s="7">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="F21" s="7">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
       <c r="G21" s="6">
-        <v>4.68</v>
+        <v>0</v>
       </c>
       <c r="H21" s="8">
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <v>0.003</v>
+        <v>0.0044</v>
       </c>
       <c r="J21" s="8">
-        <v>0.003</v>
+        <v>0.0065</v>
       </c>
       <c r="K21" s="8">
         <v>0.0003</v>
       </c>
       <c r="L21" s="7">
-        <v>4.91</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -6070,49 +6070,49 @@
         <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>3017</v>
+        <v>3213</v>
       </c>
       <c r="P21" s="9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q21" s="9">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R21" s="9">
         <v>1</v>
       </c>
       <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0</v>
+      </c>
+      <c r="U21" s="9">
+        <v>0</v>
+      </c>
+      <c r="V21" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="W21" s="9">
+        <v>21</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0.0065</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="Z21" s="9">
         <v>1</v>
       </c>
-      <c r="T21" s="9">
-        <v>1</v>
-      </c>
-      <c r="U21" s="9">
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
-        <v>0.55</v>
-      </c>
-      <c r="W21" s="9">
-        <v>8</v>
-      </c>
-      <c r="X21" s="8">
-        <v>0.0027</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>0.61</v>
-      </c>
-      <c r="Z21" s="9">
-        <v>0</v>
-      </c>
       <c r="AA21" s="8">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="AB21" s="7">
-        <v>4.91</v>
+        <v>4.89</v>
       </c>
       <c r="AC21" s="7">
-        <v>0</v>
+        <v>4.89</v>
       </c>
       <c r="AD21" s="7">
         <v>0</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="8">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="8">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="7">
-        <v>4.63</v>
+        <v>4.62</v>
       </c>
       <c r="D22" s="7">
         <v>83.62</v>
@@ -6157,43 +6157,43 @@
         <v>0.31</v>
       </c>
       <c r="F22" s="7">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="G22" s="6">
-        <v>18.06</v>
+        <v>18.1</v>
       </c>
       <c r="H22" s="8">
         <v>0.8</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0019</v>
+        <v>0.0018</v>
       </c>
       <c r="J22" s="8">
-        <v>0.0017</v>
+        <v>0.004</v>
       </c>
       <c r="K22" s="8">
-        <v>0.0001</v>
+        <v>0.0005</v>
       </c>
       <c r="L22" s="7">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="M22" s="6">
-        <v>15.1</v>
+        <v>15.13</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
       </c>
       <c r="O22" s="9">
-        <v>15118</v>
+        <v>14980</v>
       </c>
       <c r="P22" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="R22" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S22" s="9">
         <v>5</v>
@@ -6205,28 +6205,28 @@
         <v>0</v>
       </c>
       <c r="V22" s="7">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="W22" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="X22" s="8">
-        <v>0.0015</v>
+        <v>0.0034</v>
       </c>
       <c r="Y22" s="7">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="Z22" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA22" s="8">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="AB22" s="7">
-        <v>4.63</v>
+        <v>0.66</v>
       </c>
       <c r="AC22" s="7">
-        <v>4.63</v>
+        <v>0.92</v>
       </c>
       <c r="AD22" s="7">
         <v>69.92</v>
@@ -6238,10 +6238,10 @@
         <v>47.94</v>
       </c>
       <c r="AG22" s="6">
-        <v>13.31</v>
+        <v>13.34</v>
       </c>
       <c r="AH22" s="6">
-        <v>10.35</v>
+        <v>10.38</v>
       </c>
       <c r="AI22" s="9">
         <v>4</v>
@@ -6262,13 +6262,13 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>4.42</v>
+        <v>4.4</v>
       </c>
       <c r="D23" s="7">
         <v>0</v>
       </c>
       <c r="E23" s="7">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="F23" s="7">
         <v>0.34</v>
@@ -6283,7 +6283,7 @@
         <v>0.0022</v>
       </c>
       <c r="J23" s="8">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
       <c r="K23" s="8">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>2760</v>
+        <v>2736</v>
       </c>
       <c r="P23" s="9">
         <v>6</v>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="7">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="W23" s="9">
         <v>0</v>
@@ -6376,16 +6376,16 @@
         <v>60</v>
       </c>
       <c r="C24" s="7">
-        <v>4.37</v>
+        <v>4.35</v>
       </c>
       <c r="D24" s="7">
         <v>0</v>
       </c>
       <c r="E24" s="7">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F24" s="7">
-        <v>1.09</v>
+        <v>0.27</v>
       </c>
       <c r="G24" s="6">
         <v>0</v>
@@ -6394,13 +6394,13 @@
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>0.0051</v>
+        <v>0.0047</v>
       </c>
       <c r="J24" s="8">
-        <v>0.0016</v>
+        <v>0.0063</v>
       </c>
       <c r="K24" s="8">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
       <c r="L24" s="7">
         <v>0</v>
@@ -6412,16 +6412,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>2556</v>
+        <v>2536</v>
       </c>
       <c r="P24" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="9">
         <v>0</v>
@@ -6433,28 +6433,28 @@
         <v>0</v>
       </c>
       <c r="V24" s="7">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="W24" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X24" s="8">
-        <v>0.0016</v>
+        <v>0.0035</v>
       </c>
       <c r="Y24" s="7">
-        <v>1.09</v>
+        <v>0.48</v>
       </c>
       <c r="Z24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24" s="8">
-        <v>0.0004</v>
+        <v>0.0008</v>
       </c>
       <c r="AB24" s="7">
-        <v>4.37</v>
+        <v>2.17</v>
       </c>
       <c r="AC24" s="7">
-        <v>4.37</v>
+        <v>2.17</v>
       </c>
       <c r="AD24" s="7">
         <v>0</v>
@@ -6490,16 +6490,16 @@
         <v>61</v>
       </c>
       <c r="C25" s="7">
-        <v>4.32</v>
+        <v>4.29</v>
       </c>
       <c r="D25" s="7">
         <v>0</v>
       </c>
       <c r="E25" s="7">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F25" s="7">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="G25" s="6">
         <v>0</v>
@@ -6508,10 +6508,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0057</v>
+        <v>0.0054</v>
       </c>
       <c r="J25" s="8">
-        <v>0.0045</v>
+        <v>0.0065</v>
       </c>
       <c r="K25" s="8">
         <v>0</v>
@@ -6526,13 +6526,13 @@
         <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>2640</v>
+        <v>2603</v>
       </c>
       <c r="P25" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R25" s="9">
         <v>0</v>
@@ -6547,16 +6547,16 @@
         <v>0</v>
       </c>
       <c r="V25" s="7">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="W25" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X25" s="8">
-        <v>0.0045</v>
+        <v>0.0065</v>
       </c>
       <c r="Y25" s="7">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
       <c r="Z25" s="9">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="7">
-        <v>4.3</v>
+        <v>4.28</v>
       </c>
       <c r="D26" s="7">
         <v>19.98</v>
@@ -6613,40 +6613,40 @@
         <v>1.39</v>
       </c>
       <c r="F26" s="7">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="G26" s="6">
-        <v>4.65</v>
+        <v>4.67</v>
       </c>
       <c r="H26" s="8">
         <v>1</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0019</v>
+        <v>0.002</v>
       </c>
       <c r="J26" s="8">
-        <v>0.0075</v>
+        <v>0.0101</v>
       </c>
       <c r="K26" s="8">
-        <v>0.0006</v>
+        <v>0.0007</v>
       </c>
       <c r="L26" s="7">
-        <v>4.3</v>
+        <v>4.28</v>
       </c>
       <c r="M26" s="6">
-        <v>4.65</v>
+        <v>4.67</v>
       </c>
       <c r="N26" s="8">
         <v>0</v>
       </c>
       <c r="O26" s="9">
-        <v>3087</v>
+        <v>3076</v>
       </c>
       <c r="P26" s="9">
         <v>6</v>
       </c>
       <c r="Q26" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="R26" s="9">
         <v>2</v>
@@ -6661,16 +6661,16 @@
         <v>0</v>
       </c>
       <c r="V26" s="7">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="W26" s="9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="X26" s="8">
-        <v>0.0042</v>
+        <v>0.0062</v>
       </c>
       <c r="Y26" s="7">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z26" s="9">
         <v>1</v>
@@ -6679,10 +6679,10 @@
         <v>0.0003</v>
       </c>
       <c r="AB26" s="7">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AC26" s="7">
-        <v>4.3</v>
+        <v>4.28</v>
       </c>
       <c r="AD26" s="7">
         <v>19.98</v>
@@ -6694,10 +6694,10 @@
         <v>19.98</v>
       </c>
       <c r="AG26" s="6">
-        <v>4.65</v>
+        <v>4.67</v>
       </c>
       <c r="AH26" s="6">
-        <v>4.65</v>
+        <v>4.67</v>
       </c>
       <c r="AI26" s="9">
         <v>1</v>
@@ -6709,7 +6709,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL26" s="7">
-        <v>4.3</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="27" spans="1:38" customHeight="1" ht="90">
@@ -6718,7 +6718,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="7">
-        <v>4.27</v>
+        <v>4.26</v>
       </c>
       <c r="D27" s="7">
         <v>0</v>
@@ -6739,7 +6739,7 @@
         <v>0.0027</v>
       </c>
       <c r="J27" s="8">
-        <v>0.0046</v>
+        <v>0.0047</v>
       </c>
       <c r="K27" s="8">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="9">
-        <v>2595</v>
+        <v>2580</v>
       </c>
       <c r="P27" s="9">
         <v>7</v>
@@ -6832,16 +6832,16 @@
         <v>64</v>
       </c>
       <c r="C28" s="7">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="D28" s="7">
         <v>0</v>
       </c>
       <c r="E28" s="7">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="F28" s="7">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
@@ -6853,7 +6853,7 @@
         <v>0.0031</v>
       </c>
       <c r="J28" s="8">
-        <v>0.0046</v>
+        <v>0.005</v>
       </c>
       <c r="K28" s="8">
         <v>0</v>
@@ -6868,13 +6868,13 @@
         <v>0</v>
       </c>
       <c r="O28" s="9">
-        <v>2601</v>
+        <v>2576</v>
       </c>
       <c r="P28" s="9">
         <v>8</v>
       </c>
       <c r="Q28" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R28" s="9">
         <v>0</v>
@@ -6946,7 +6946,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="7">
-        <v>4.25</v>
+        <v>4.23</v>
       </c>
       <c r="D29" s="7">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>1.52</v>
       </c>
       <c r="F29" s="7">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="G29" s="6">
         <v>0</v>
@@ -6964,10 +6964,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <v>0.0057</v>
+        <v>0.0058</v>
       </c>
       <c r="J29" s="8">
-        <v>0.0036</v>
+        <v>0.0043</v>
       </c>
       <c r="K29" s="8">
         <v>0</v>
@@ -6982,13 +6982,13 @@
         <v>0</v>
       </c>
       <c r="O29" s="9">
-        <v>2798</v>
+        <v>2779</v>
       </c>
       <c r="P29" s="9">
         <v>16</v>
       </c>
       <c r="Q29" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R29" s="9">
         <v>0</v>
@@ -7003,16 +7003,16 @@
         <v>0</v>
       </c>
       <c r="V29" s="7">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="W29" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X29" s="8">
-        <v>0.0036</v>
+        <v>0.0043</v>
       </c>
       <c r="Y29" s="7">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="Z29" s="9">
         <v>0</v>
@@ -7060,7 +7060,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="7">
-        <v>4.25</v>
+        <v>4.23</v>
       </c>
       <c r="D30" s="7">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>1.68</v>
       </c>
       <c r="F30" s="7">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="G30" s="6">
         <v>0</v>
@@ -7078,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
       <c r="J30" s="8">
-        <v>0.0039</v>
+        <v>0.0052</v>
       </c>
       <c r="K30" s="8">
         <v>0</v>
@@ -7096,13 +7096,13 @@
         <v>0</v>
       </c>
       <c r="O30" s="9">
-        <v>2535</v>
+        <v>2517</v>
       </c>
       <c r="P30" s="9">
         <v>12</v>
       </c>
       <c r="Q30" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R30" s="9">
         <v>0</v>
@@ -7120,13 +7120,13 @@
         <v>0.35</v>
       </c>
       <c r="W30" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X30" s="8">
-        <v>0.0036</v>
+        <v>0.0044</v>
       </c>
       <c r="Y30" s="7">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="Z30" s="9">
         <v>0</v>
@@ -7174,19 +7174,19 @@
         <v>67</v>
       </c>
       <c r="C31" s="7">
-        <v>4.19</v>
+        <v>4.17</v>
       </c>
       <c r="D31" s="7">
         <v>34.96</v>
       </c>
       <c r="E31" s="7">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="F31" s="7">
-        <v>0.84</v>
+        <v>0.22</v>
       </c>
       <c r="G31" s="6">
-        <v>8.34</v>
+        <v>8.38</v>
       </c>
       <c r="H31" s="8">
         <v>1</v>
@@ -7195,31 +7195,31 @@
         <v>0.0023</v>
       </c>
       <c r="J31" s="8">
-        <v>0.0019</v>
+        <v>0.0073</v>
       </c>
       <c r="K31" s="8">
-        <v>0.0004</v>
+        <v>0.0012</v>
       </c>
       <c r="L31" s="7">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="M31" s="6">
-        <v>8.34</v>
+        <v>8.38</v>
       </c>
       <c r="N31" s="8">
         <v>0</v>
       </c>
       <c r="O31" s="9">
-        <v>2612</v>
+        <v>2595</v>
       </c>
       <c r="P31" s="9">
         <v>6</v>
       </c>
       <c r="Q31" s="9">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="R31" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S31" s="9">
         <v>2</v>
@@ -7234,25 +7234,25 @@
         <v>0.7</v>
       </c>
       <c r="W31" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="X31" s="8">
-        <v>0.0004</v>
+        <v>0.005</v>
       </c>
       <c r="Y31" s="7">
-        <v>4.19</v>
+        <v>0.32</v>
       </c>
       <c r="Z31" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA31" s="8">
-        <v>0.0004</v>
+        <v>0.0012</v>
       </c>
       <c r="AB31" s="7">
-        <v>4.19</v>
+        <v>1.39</v>
       </c>
       <c r="AC31" s="7">
-        <v>4.19</v>
+        <v>1.39</v>
       </c>
       <c r="AD31" s="7">
         <v>34.96</v>
@@ -7264,10 +7264,10 @@
         <v>34.96</v>
       </c>
       <c r="AG31" s="6">
-        <v>8.34</v>
+        <v>8.38</v>
       </c>
       <c r="AH31" s="6">
-        <v>8.34</v>
+        <v>8.38</v>
       </c>
       <c r="AI31" s="9">
         <v>2</v>
@@ -7279,7 +7279,7 @@
         <v>0.0008</v>
       </c>
       <c r="AL31" s="7">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="32" spans="1:38" customHeight="1" ht="90">
@@ -7288,13 +7288,13 @@
         <v>68</v>
       </c>
       <c r="C32" s="7">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="D32" s="7">
         <v>0</v>
       </c>
       <c r="E32" s="7">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="F32" s="7">
         <v>0.34</v>
@@ -7309,7 +7309,7 @@
         <v>0.0016</v>
       </c>
       <c r="J32" s="8">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
       <c r="K32" s="8">
         <v>0</v>
@@ -7324,7 +7324,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="9">
-        <v>2543</v>
+        <v>2510</v>
       </c>
       <c r="P32" s="9">
         <v>4</v>
@@ -7345,13 +7345,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="7">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="W32" s="9">
         <v>12</v>
       </c>
       <c r="X32" s="8">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
       <c r="Y32" s="7">
         <v>0.34</v>
@@ -7402,7 +7402,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="7">
-        <v>4.07</v>
+        <v>4.06</v>
       </c>
       <c r="D33" s="7">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>1.62</v>
       </c>
       <c r="F33" s="7">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -7423,7 +7423,7 @@
         <v>0.0008</v>
       </c>
       <c r="J33" s="8">
-        <v>0.0067</v>
+        <v>0.008</v>
       </c>
       <c r="K33" s="8">
         <v>0</v>
@@ -7438,13 +7438,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="9">
-        <v>2520</v>
+        <v>2504</v>
       </c>
       <c r="P33" s="9">
         <v>2</v>
       </c>
       <c r="Q33" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R33" s="9">
         <v>0</v>
@@ -7459,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="7">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="W33" s="9">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="7">
-        <v>4.06</v>
+        <v>4.05</v>
       </c>
       <c r="D34" s="7">
         <v>0</v>
@@ -7525,7 +7525,7 @@
         <v>0.46</v>
       </c>
       <c r="F34" s="7">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -7537,10 +7537,10 @@
         <v>0.0036</v>
       </c>
       <c r="J34" s="8">
-        <v>0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="K34" s="8">
-        <v>0.0001</v>
+        <v>0.0008</v>
       </c>
       <c r="L34" s="7">
         <v>0</v>
@@ -7552,16 +7552,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="9">
-        <v>8865</v>
+        <v>8813</v>
       </c>
       <c r="P34" s="9">
         <v>32</v>
       </c>
       <c r="Q34" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="R34" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S34" s="9">
         <v>0</v>
@@ -7576,25 +7576,25 @@
         <v>0.13</v>
       </c>
       <c r="W34" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="X34" s="8">
-        <v>0.0032</v>
+        <v>0.0048</v>
       </c>
       <c r="Y34" s="7">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="Z34" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AA34" s="8">
-        <v>0.0001</v>
+        <v>0.0008</v>
       </c>
       <c r="AB34" s="7">
-        <v>4.06</v>
+        <v>0.58</v>
       </c>
       <c r="AC34" s="7">
-        <v>4.06</v>
+        <v>0.58</v>
       </c>
       <c r="AD34" s="7">
         <v>0</v>
@@ -7630,52 +7630,52 @@
         <v>71</v>
       </c>
       <c r="C35" s="7">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7">
         <v>38.96</v>
       </c>
       <c r="E35" s="7">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="F35" s="7">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="G35" s="6">
-        <v>9.69</v>
+        <v>9.74</v>
       </c>
       <c r="H35" s="8">
         <v>1</v>
       </c>
       <c r="I35" s="8">
-        <v>0.0026</v>
+        <v>0.0025</v>
       </c>
       <c r="J35" s="8">
-        <v>0.0029</v>
+        <v>0.0054</v>
       </c>
       <c r="K35" s="8">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="L35" s="7">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="M35" s="6">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="N35" s="8">
         <v>0</v>
       </c>
       <c r="O35" s="9">
-        <v>13667</v>
+        <v>13511</v>
       </c>
       <c r="P35" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="9">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="R35" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S35" s="9">
         <v>2</v>
@@ -7687,28 +7687,28 @@
         <v>0</v>
       </c>
       <c r="V35" s="7">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="W35" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="X35" s="8">
-        <v>0.0024</v>
+        <v>0.0038</v>
       </c>
       <c r="Y35" s="7">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="Z35" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA35" s="8">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="AB35" s="7">
-        <v>4.02</v>
+        <v>1.33</v>
       </c>
       <c r="AC35" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD35" s="7">
         <v>15.98</v>
@@ -7720,10 +7720,10 @@
         <v>15.98</v>
       </c>
       <c r="AG35" s="6">
-        <v>9.69</v>
+        <v>9.74</v>
       </c>
       <c r="AH35" s="6">
-        <v>3.98</v>
+        <v>4</v>
       </c>
       <c r="AI35" s="9">
         <v>1</v>
@@ -7735,7 +7735,7 @@
         <v>0.0001</v>
       </c>
       <c r="AL35" s="7">
-        <v>4.02</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:38" customHeight="1" ht="90">
@@ -7744,7 +7744,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="7">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="D36" s="7">
         <v>22.98</v>
@@ -7753,40 +7753,40 @@
         <v>1.31</v>
       </c>
       <c r="F36" s="7">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="G36" s="6">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="H36" s="8">
         <v>1</v>
       </c>
       <c r="I36" s="8">
-        <v>0.0023</v>
+        <v>0.0024</v>
       </c>
       <c r="J36" s="8">
-        <v>0.003</v>
+        <v>0.0064</v>
       </c>
       <c r="K36" s="8">
         <v>0.0003</v>
       </c>
       <c r="L36" s="7">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="M36" s="6">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="N36" s="8">
         <v>0</v>
       </c>
       <c r="O36" s="9">
-        <v>2981</v>
+        <v>2969</v>
       </c>
       <c r="P36" s="9">
         <v>7</v>
       </c>
       <c r="Q36" s="9">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="R36" s="9">
         <v>1</v>
@@ -7804,13 +7804,13 @@
         <v>0.56</v>
       </c>
       <c r="W36" s="9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="X36" s="8">
-        <v>0.003</v>
+        <v>0.0047</v>
       </c>
       <c r="Y36" s="7">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="Z36" s="9">
         <v>1</v>
@@ -7819,10 +7819,10 @@
         <v>0.0003</v>
       </c>
       <c r="AB36" s="7">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="AC36" s="7">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="AD36" s="7">
         <v>22.98</v>
@@ -7834,10 +7834,10 @@
         <v>22.98</v>
       </c>
       <c r="AG36" s="6">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="AH36" s="6">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="AI36" s="9">
         <v>1</v>
@@ -7849,7 +7849,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL36" s="7">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="37" spans="1:38" customHeight="1" ht="90">
@@ -7858,7 +7858,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="7">
-        <v>3.81</v>
+        <v>3.79</v>
       </c>
       <c r="D37" s="7">
         <v>39.96</v>
@@ -7867,10 +7867,10 @@
         <v>0.48</v>
       </c>
       <c r="F37" s="7">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G37" s="6">
-        <v>10.49</v>
+        <v>10.54</v>
       </c>
       <c r="H37" s="8">
         <v>1</v>
@@ -7879,31 +7879,31 @@
         <v>0.0044</v>
       </c>
       <c r="J37" s="8">
-        <v>0.0049</v>
+        <v>0.0082</v>
       </c>
       <c r="K37" s="8">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="L37" s="7">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M37" s="6">
-        <v>10.49</v>
+        <v>10.54</v>
       </c>
       <c r="N37" s="8">
         <v>0</v>
       </c>
       <c r="O37" s="9">
-        <v>7995</v>
+        <v>7925</v>
       </c>
       <c r="P37" s="9">
         <v>35</v>
       </c>
       <c r="Q37" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="R37" s="9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S37" s="9">
         <v>3</v>
@@ -7918,25 +7918,25 @@
         <v>0.11</v>
       </c>
       <c r="W37" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="X37" s="8">
-        <v>0.0038</v>
+        <v>0.0062</v>
       </c>
       <c r="Y37" s="7">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="Z37" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA37" s="8">
-        <v>0.0001</v>
+        <v>0.0006</v>
       </c>
       <c r="AB37" s="7">
-        <v>1.9</v>
+        <v>0.63</v>
       </c>
       <c r="AC37" s="7">
-        <v>3.81</v>
+        <v>0.76</v>
       </c>
       <c r="AD37" s="7">
         <v>39.96</v>
@@ -7948,10 +7948,10 @@
         <v>39.96</v>
       </c>
       <c r="AG37" s="6">
-        <v>10.49</v>
+        <v>10.54</v>
       </c>
       <c r="AH37" s="6">
-        <v>10.49</v>
+        <v>10.54</v>
       </c>
       <c r="AI37" s="9">
         <v>3</v>
@@ -7963,7 +7963,7 @@
         <v>0.0004</v>
       </c>
       <c r="AL37" s="7">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="38" spans="1:38" customHeight="1" ht="90">
@@ -7972,7 +7972,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="7">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="D38" s="7">
         <v>85.9</v>
@@ -7981,43 +7981,43 @@
         <v>0.47</v>
       </c>
       <c r="F38" s="7">
-        <v>0.15</v>
+        <v>0.07</v>
       </c>
       <c r="G38" s="6">
-        <v>23.15</v>
+        <v>23.41</v>
       </c>
       <c r="H38" s="8">
         <v>0.8</v>
       </c>
       <c r="I38" s="8">
-        <v>0.004</v>
+        <v>0.0041</v>
       </c>
       <c r="J38" s="8">
-        <v>0.003</v>
+        <v>0.0069</v>
       </c>
       <c r="K38" s="8">
-        <v>0.0001</v>
+        <v>0.0008</v>
       </c>
       <c r="L38" s="7">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="M38" s="6">
-        <v>9.69</v>
+        <v>9.8</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
       </c>
       <c r="O38" s="9">
-        <v>7916</v>
+        <v>7856</v>
       </c>
       <c r="P38" s="9">
         <v>32</v>
       </c>
       <c r="Q38" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="R38" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S38" s="9">
         <v>5</v>
@@ -8029,16 +8029,16 @@
         <v>0</v>
       </c>
       <c r="V38" s="7">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="W38" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="X38" s="8">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="Y38" s="7">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="Z38" s="9">
         <v>0</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="7">
-        <v>3.71</v>
+        <v>0.61</v>
       </c>
       <c r="AC38" s="7">
         <v>0</v>
@@ -8062,10 +8062,10 @@
         <v>35.96</v>
       </c>
       <c r="AG38" s="6">
-        <v>18.04</v>
+        <v>18.23</v>
       </c>
       <c r="AH38" s="6">
-        <v>9.69</v>
+        <v>9.8</v>
       </c>
       <c r="AI38" s="9">
         <v>2</v>
@@ -8077,7 +8077,7 @@
         <v>0.0003</v>
       </c>
       <c r="AL38" s="7">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="39" spans="1:38" customHeight="1" ht="90">
@@ -8095,7 +8095,7 @@
         <v>1.76</v>
       </c>
       <c r="F39" s="7">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>0.0049</v>
       </c>
       <c r="J39" s="8">
-        <v>0.0059</v>
+        <v>0.0069</v>
       </c>
       <c r="K39" s="8">
         <v>0</v>
@@ -8128,7 +8128,7 @@
         <v>10</v>
       </c>
       <c r="Q39" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R39" s="9">
         <v>0</v>
@@ -8200,7 +8200,7 @@
         <v>76</v>
       </c>
       <c r="C40" s="7">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="D40" s="7">
         <v>16.97</v>
@@ -8209,25 +8209,25 @@
         <v>2</v>
       </c>
       <c r="F40" s="7">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="G40" s="6">
-        <v>4.93</v>
+        <v>4.96</v>
       </c>
       <c r="H40" s="8">
         <v>0.5</v>
       </c>
       <c r="I40" s="8">
-        <v>0.0075</v>
+        <v>0.007</v>
       </c>
       <c r="J40" s="8">
-        <v>0.0093</v>
+        <v>0.0175</v>
       </c>
       <c r="K40" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="L40" s="7">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="M40" s="6">
         <v>0</v>
@@ -8236,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="9">
-        <v>1724</v>
+        <v>1714</v>
       </c>
       <c r="P40" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R40" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S40" s="9">
         <v>2</v>
@@ -8257,28 +8257,28 @@
         <v>0</v>
       </c>
       <c r="V40" s="7">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="W40" s="9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="X40" s="8">
-        <v>0.0046</v>
+        <v>0.0111</v>
       </c>
       <c r="Y40" s="7">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="Z40" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AB40" s="7">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC40" s="7">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AD40" s="7">
         <v>0</v>
@@ -8290,7 +8290,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="6">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="AH40" s="6">
         <v>0</v>
@@ -8320,10 +8320,10 @@
         <v>19.98</v>
       </c>
       <c r="E41" s="7">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="F41" s="7">
-        <v>0.86</v>
+        <v>0.23</v>
       </c>
       <c r="G41" s="6">
         <v>5.84</v>
@@ -8335,10 +8335,10 @@
         <v>0.0056</v>
       </c>
       <c r="J41" s="8">
-        <v>0.0025</v>
+        <v>0.0094</v>
       </c>
       <c r="K41" s="8">
-        <v>0</v>
+        <v>0.0013</v>
       </c>
       <c r="L41" s="7">
         <v>3.42</v>
@@ -8350,16 +8350,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="9">
-        <v>1607</v>
+        <v>1599</v>
       </c>
       <c r="P41" s="9">
         <v>9</v>
       </c>
       <c r="Q41" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R41" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S41" s="9">
         <v>1</v>
@@ -8374,25 +8374,25 @@
         <v>0.38</v>
       </c>
       <c r="W41" s="9">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="X41" s="8">
-        <v>0.0025</v>
+        <v>0.0094</v>
       </c>
       <c r="Y41" s="7">
-        <v>0.86</v>
+        <v>0.23</v>
       </c>
       <c r="Z41" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41" s="8">
-        <v>0</v>
+        <v>0.0006</v>
       </c>
       <c r="AB41" s="7">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC41" s="7">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AD41" s="7">
         <v>19.98</v>
@@ -8428,7 +8428,7 @@
         <v>78</v>
       </c>
       <c r="C42" s="7">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="D42" s="7">
         <v>38.96</v>
@@ -8437,10 +8437,10 @@
         <v>2.08</v>
       </c>
       <c r="F42" s="7">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
       <c r="G42" s="6">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="H42" s="8">
         <v>0.5</v>
@@ -8449,31 +8449,31 @@
         <v>0.0063</v>
       </c>
       <c r="J42" s="8">
-        <v>0.0044</v>
+        <v>0.0133</v>
       </c>
       <c r="K42" s="8">
-        <v>0.0006</v>
+        <v>0.0025</v>
       </c>
       <c r="L42" s="7">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="M42" s="6">
-        <v>11.81</v>
+        <v>11.84</v>
       </c>
       <c r="N42" s="8">
         <v>0</v>
       </c>
       <c r="O42" s="9">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="P42" s="9">
         <v>10</v>
       </c>
       <c r="Q42" s="9">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R42" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S42" s="9">
         <v>2</v>
@@ -8488,25 +8488,25 @@
         <v>0.33</v>
       </c>
       <c r="W42" s="9">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X42" s="8">
-        <v>0.0038</v>
+        <v>0.0114</v>
       </c>
       <c r="Y42" s="7">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="Z42" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA42" s="8">
-        <v>0.0006</v>
+        <v>0.0025</v>
       </c>
       <c r="AB42" s="7">
-        <v>3.3</v>
+        <v>0.82</v>
       </c>
       <c r="AC42" s="7">
-        <v>3.3</v>
+        <v>0.82</v>
       </c>
       <c r="AD42" s="7">
         <v>38.96</v>
@@ -8518,10 +8518,10 @@
         <v>15.98</v>
       </c>
       <c r="AG42" s="6">
-        <v>4.84</v>
+        <v>4.86</v>
       </c>
       <c r="AH42" s="6">
-        <v>4.84</v>
+        <v>4.86</v>
       </c>
       <c r="AI42" s="9">
         <v>2</v>
@@ -8533,7 +8533,7 @@
         <v>0.0013</v>
       </c>
       <c r="AL42" s="7">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="43" spans="1:38" customHeight="1" ht="90">
@@ -8542,7 +8542,7 @@
         <v>79</v>
       </c>
       <c r="C43" s="7">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="D43" s="7">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>2.01</v>
       </c>
       <c r="F43" s="7">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G43" s="6">
         <v>0</v>
@@ -8560,13 +8560,13 @@
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <v>0.0074</v>
+        <v>0.0075</v>
       </c>
       <c r="J43" s="8">
-        <v>0.008</v>
+        <v>0.0137</v>
       </c>
       <c r="K43" s="8">
-        <v>0.0012</v>
+        <v>0.0031</v>
       </c>
       <c r="L43" s="7">
         <v>0</v>
@@ -8578,16 +8578,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="9">
-        <v>1624</v>
+        <v>1609</v>
       </c>
       <c r="P43" s="9">
         <v>12</v>
       </c>
       <c r="Q43" s="9">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="R43" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S43" s="9">
         <v>0</v>
@@ -8602,25 +8602,25 @@
         <v>0.27</v>
       </c>
       <c r="W43" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="X43" s="8">
-        <v>0.0074</v>
+        <v>0.0131</v>
       </c>
       <c r="Y43" s="7">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="Z43" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA43" s="8">
-        <v>0.0006</v>
+        <v>0.0025</v>
       </c>
       <c r="AB43" s="7">
-        <v>1.64</v>
+        <v>0.65</v>
       </c>
       <c r="AC43" s="7">
-        <v>3.27</v>
+        <v>0.81</v>
       </c>
       <c r="AD43" s="7">
         <v>0</v>
@@ -8656,7 +8656,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="7">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="D44" s="7">
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>2.12</v>
       </c>
       <c r="F44" s="7">
-        <v>0.65</v>
+        <v>0.27</v>
       </c>
       <c r="G44" s="6">
         <v>0</v>
@@ -8677,11 +8677,11 @@
         <v>0.0026</v>
       </c>
       <c r="J44" s="8">
+        <v>0.0079</v>
+      </c>
+      <c r="K44" s="8">
         <v>0.0033</v>
       </c>
-      <c r="K44" s="8">
-        <v>0.0013</v>
-      </c>
       <c r="L44" s="7">
         <v>0</v>
       </c>
@@ -8692,16 +8692,16 @@
         <v>0</v>
       </c>
       <c r="O44" s="9">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="P44" s="9">
         <v>4</v>
       </c>
       <c r="Q44" s="9">
+        <v>12</v>
+      </c>
+      <c r="R44" s="9">
         <v>5</v>
-      </c>
-      <c r="R44" s="9">
-        <v>2</v>
       </c>
       <c r="S44" s="9">
         <v>0</v>
@@ -8716,25 +8716,25 @@
         <v>0.81</v>
       </c>
       <c r="W44" s="9">
+        <v>12</v>
+      </c>
+      <c r="X44" s="8">
+        <v>0.0079</v>
+      </c>
+      <c r="Y44" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="Z44" s="9">
         <v>5</v>
       </c>
-      <c r="X44" s="8">
+      <c r="AA44" s="8">
         <v>0.0033</v>
       </c>
-      <c r="Y44" s="7">
+      <c r="AB44" s="7">
         <v>0.65</v>
       </c>
-      <c r="Z44" s="9">
-        <v>2</v>
-      </c>
-      <c r="AA44" s="8">
-        <v>0.0013</v>
-      </c>
-      <c r="AB44" s="7">
-        <v>1.62</v>
-      </c>
       <c r="AC44" s="7">
-        <v>1.62</v>
+        <v>0.65</v>
       </c>
       <c r="AD44" s="7">
         <v>0</v>
@@ -8770,19 +8770,19 @@
         <v>81</v>
       </c>
       <c r="C45" s="7">
-        <v>3.14</v>
+        <v>3.12</v>
       </c>
       <c r="D45" s="7">
         <v>39.96</v>
       </c>
       <c r="E45" s="7">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="F45" s="7">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="G45" s="6">
-        <v>12.73</v>
+        <v>12.81</v>
       </c>
       <c r="H45" s="8">
         <v>1</v>
@@ -8791,31 +8791,31 @@
         <v>0.0046</v>
       </c>
       <c r="J45" s="8">
-        <v>0.0072</v>
+        <v>0.0144</v>
       </c>
       <c r="K45" s="8">
-        <v>0.0007</v>
+        <v>0.002</v>
       </c>
       <c r="L45" s="7">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M45" s="6">
-        <v>12.73</v>
+        <v>12.81</v>
       </c>
       <c r="N45" s="8">
         <v>0</v>
       </c>
       <c r="O45" s="9">
-        <v>1538</v>
+        <v>1524</v>
       </c>
       <c r="P45" s="9">
         <v>7</v>
       </c>
       <c r="Q45" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="R45" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S45" s="9">
         <v>2</v>
@@ -8830,25 +8830,25 @@
         <v>0.45</v>
       </c>
       <c r="W45" s="9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="X45" s="8">
-        <v>0.0072</v>
+        <v>0.0144</v>
       </c>
       <c r="Y45" s="7">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="Z45" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA45" s="8">
-        <v>0.0007</v>
+        <v>0.002</v>
       </c>
       <c r="AB45" s="7">
-        <v>3.14</v>
+        <v>1.04</v>
       </c>
       <c r="AC45" s="7">
-        <v>3.14</v>
+        <v>1.04</v>
       </c>
       <c r="AD45" s="7">
         <v>39.96</v>
@@ -8860,10 +8860,10 @@
         <v>39.96</v>
       </c>
       <c r="AG45" s="6">
-        <v>12.73</v>
+        <v>12.81</v>
       </c>
       <c r="AH45" s="6">
-        <v>12.73</v>
+        <v>12.81</v>
       </c>
       <c r="AI45" s="9">
         <v>2</v>
@@ -8875,7 +8875,7 @@
         <v>0.0013</v>
       </c>
       <c r="AL45" s="7">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="46" spans="1:38" customHeight="1" ht="90">
@@ -8884,34 +8884,34 @@
         <v>82</v>
       </c>
       <c r="C46" s="7">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="D46" s="7">
         <v>18.98</v>
       </c>
       <c r="E46" s="7">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="F46" s="7">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="G46" s="6">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="H46" s="8">
         <v>1</v>
       </c>
       <c r="I46" s="8">
-        <v>0.0075</v>
+        <v>0.0076</v>
       </c>
       <c r="J46" s="8">
-        <v>0.0103</v>
+        <v>0.0166</v>
       </c>
       <c r="K46" s="8">
-        <v>0.0034</v>
+        <v>0.0062</v>
       </c>
       <c r="L46" s="7">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="M46" s="6">
         <v>0</v>
@@ -8920,16 +8920,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="9">
-        <v>1462</v>
+        <v>1445</v>
       </c>
       <c r="P46" s="9">
         <v>11</v>
       </c>
       <c r="Q46" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="R46" s="9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S46" s="9">
         <v>1</v>
@@ -8944,25 +8944,25 @@
         <v>0.28</v>
       </c>
       <c r="W46" s="9">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="X46" s="8">
-        <v>0.0103</v>
+        <v>0.0166</v>
       </c>
       <c r="Y46" s="7">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="Z46" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA46" s="8">
-        <v>0.0034</v>
+        <v>0.0048</v>
       </c>
       <c r="AB46" s="7">
-        <v>0.62</v>
+        <v>0.34</v>
       </c>
       <c r="AC46" s="7">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="AD46" s="7">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="6">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="AH46" s="6">
         <v>0</v>
@@ -8998,16 +8998,16 @@
         <v>83</v>
       </c>
       <c r="C47" s="7">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="D47" s="7">
         <v>0</v>
       </c>
       <c r="E47" s="7">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="F47" s="7">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="G47" s="6">
         <v>0</v>
@@ -9016,13 +9016,13 @@
         <v>0</v>
       </c>
       <c r="I47" s="8">
-        <v>0.0043</v>
+        <v>0.0038</v>
       </c>
       <c r="J47" s="8">
-        <v>0.001</v>
+        <v>0.0013</v>
       </c>
       <c r="K47" s="8">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="L47" s="7">
         <v>0</v>
@@ -9034,16 +9034,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="9">
-        <v>3948</v>
+        <v>3910</v>
       </c>
       <c r="P47" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q47" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S47" s="9">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="7">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="W47" s="9">
         <v>0</v>
@@ -9067,16 +9067,16 @@
         <v>0</v>
       </c>
       <c r="Z47" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="8">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="AB47" s="7">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="7">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="7">
         <v>0</v>
@@ -9112,13 +9112,13 @@
         <v>84</v>
       </c>
       <c r="C48" s="7">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="D48" s="7">
         <v>0</v>
       </c>
       <c r="E48" s="7">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F48" s="7">
         <v>0</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="9">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="P48" s="9">
         <v>0</v>
@@ -9226,13 +9226,13 @@
         <v>85</v>
       </c>
       <c r="C49" s="7">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="D49" s="7">
         <v>0</v>
       </c>
       <c r="E49" s="7">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F49" s="7">
         <v>0</v>
@@ -9262,7 +9262,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="9">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="P49" s="9">
         <v>0</v>
@@ -9340,13 +9340,13 @@
         <v>86</v>
       </c>
       <c r="C50" s="7">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="D50" s="7">
         <v>0</v>
       </c>
       <c r="E50" s="7">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F50" s="7">
         <v>0</v>
@@ -9376,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="9">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="P50" s="9">
         <v>0</v>
@@ -9454,16 +9454,16 @@
         <v>87</v>
       </c>
       <c r="C51" s="7">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="D51" s="7">
         <v>0</v>
       </c>
       <c r="E51" s="7">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F51" s="7">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="G51" s="6">
         <v>0</v>
@@ -9475,10 +9475,10 @@
         <v>0.0098</v>
       </c>
       <c r="J51" s="8">
-        <v>0.0037</v>
+        <v>0.011</v>
       </c>
       <c r="K51" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="L51" s="7">
         <v>0</v>
@@ -9490,16 +9490,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="9">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="P51" s="9">
         <v>8</v>
       </c>
       <c r="Q51" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="9">
         <v>0</v>
@@ -9514,25 +9514,25 @@
         <v>0.07</v>
       </c>
       <c r="W51" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X51" s="8">
-        <v>0.0024</v>
+        <v>0.0086</v>
       </c>
       <c r="Y51" s="7">
-        <v>0.27</v>
+        <v>0.08</v>
       </c>
       <c r="Z51" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51" s="8">
-        <v>0</v>
+        <v>0.0012</v>
       </c>
       <c r="AB51" s="7">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AC51" s="7">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="AD51" s="7">
         <v>0</v>
@@ -9568,13 +9568,13 @@
         <v>88</v>
       </c>
       <c r="C52" s="7">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="D52" s="7">
         <v>0</v>
       </c>
       <c r="E52" s="7">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F52" s="7">
         <v>0</v>
@@ -9604,7 +9604,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="9">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="P52" s="9">
         <v>0</v>
@@ -9682,16 +9682,16 @@
         <v>89</v>
       </c>
       <c r="C53" s="7">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="D53" s="7">
         <v>0</v>
       </c>
       <c r="E53" s="7">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F53" s="7">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="G53" s="6">
         <v>0</v>
@@ -9700,10 +9700,10 @@
         <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>0.0083</v>
+        <v>0.0084</v>
       </c>
       <c r="J53" s="8">
-        <v>0.0062</v>
+        <v>0.0105</v>
       </c>
       <c r="K53" s="8">
         <v>0</v>
@@ -9718,13 +9718,13 @@
         <v>0</v>
       </c>
       <c r="O53" s="9">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="P53" s="9">
         <v>4</v>
       </c>
       <c r="Q53" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R53" s="9">
         <v>0</v>
@@ -9742,13 +9742,13 @@
         <v>0.12</v>
       </c>
       <c r="W53" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X53" s="8">
-        <v>0.0042</v>
+        <v>0.0084</v>
       </c>
       <c r="Y53" s="7">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="Z53" s="9">
         <v>0</v>
@@ -9796,13 +9796,13 @@
         <v>90</v>
       </c>
       <c r="C54" s="7">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D54" s="7">
         <v>0</v>
       </c>
       <c r="E54" s="7">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F54" s="7">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <v>0.0117</v>
+        <v>0.0118</v>
       </c>
       <c r="J54" s="8">
         <v>0</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="9">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P54" s="9">
         <v>4</v>
@@ -9910,16 +9910,16 @@
         <v>91</v>
       </c>
       <c r="C55" s="7">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="D55" s="7">
         <v>0</v>
       </c>
       <c r="E55" s="7">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="F55" s="7">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="G55" s="6">
         <v>0</v>
@@ -9928,10 +9928,10 @@
         <v>0</v>
       </c>
       <c r="I55" s="8">
-        <v>0.0329</v>
+        <v>0.024</v>
       </c>
       <c r="J55" s="8">
-        <v>0.0141</v>
+        <v>0.0096</v>
       </c>
       <c r="K55" s="8">
         <v>0</v>
@@ -9946,13 +9946,13 @@
         <v>0</v>
       </c>
       <c r="O55" s="9">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="P55" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q55" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R55" s="9">
         <v>0</v>
@@ -9967,16 +9967,16 @@
         <v>0</v>
       </c>
       <c r="V55" s="7">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W55" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X55" s="8">
-        <v>0.0141</v>
+        <v>0.0096</v>
       </c>
       <c r="Y55" s="7">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="Z55" s="9">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="E56" s="7">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="F56" s="7">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="G56" s="6">
         <v>0</v>
@@ -10042,10 +10042,10 @@
         <v>0</v>
       </c>
       <c r="I56" s="8">
-        <v>0.0276</v>
+        <v>0.0335</v>
       </c>
       <c r="J56" s="8">
-        <v>0</v>
+        <v>0.0191</v>
       </c>
       <c r="K56" s="8">
         <v>0</v>
@@ -10060,13 +10060,13 @@
         <v>0</v>
       </c>
       <c r="O56" s="9">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="P56" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q56" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R56" s="9">
         <v>0</v>
@@ -10084,13 +10084,13 @@
         <v>0.05</v>
       </c>
       <c r="W56" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X56" s="8">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="Y56" s="7">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="Z56" s="9">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>93</v>
       </c>
       <c r="C57" s="7">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="D57" s="7">
         <v>0</v>
@@ -10147,22 +10147,22 @@
         <v>1.55</v>
       </c>
       <c r="F57" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
         <v>0.03</v>
       </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0.0291</v>
-      </c>
       <c r="J57" s="8">
-        <v>0.0583</v>
+        <v>0.065</v>
       </c>
       <c r="K57" s="8">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L57" s="7">
         <v>0</v>
@@ -10174,16 +10174,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="9">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P57" s="9">
         <v>6</v>
       </c>
       <c r="Q57" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R57" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="9">
         <v>0</v>
@@ -10198,13 +10198,13 @@
         <v>0.05</v>
       </c>
       <c r="W57" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X57" s="8">
-        <v>0.0583</v>
+        <v>0.065</v>
       </c>
       <c r="Y57" s="7">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Z57" s="9">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="AB57" s="7">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AC57" s="7">
         <v>0</v>
@@ -10258,10 +10258,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="7">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="F58" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G58" s="6">
         <v>0</v>
@@ -10270,10 +10270,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="8">
-        <v>0.0234</v>
+        <v>0.0338</v>
       </c>
       <c r="J58" s="8">
-        <v>0</v>
+        <v>0.0145</v>
       </c>
       <c r="K58" s="8">
         <v>0</v>
@@ -10288,13 +10288,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="9">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P58" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q58" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R58" s="9">
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="7">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="W58" s="9">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="7">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="F59" s="7">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
@@ -10384,10 +10384,10 @@
         <v>0</v>
       </c>
       <c r="I59" s="8">
-        <v>0.0335</v>
+        <v>0.0324</v>
       </c>
       <c r="J59" s="8">
-        <v>0.0096</v>
+        <v>0.0231</v>
       </c>
       <c r="K59" s="8">
         <v>0</v>
@@ -10402,13 +10402,13 @@
         <v>0</v>
       </c>
       <c r="O59" s="9">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P59" s="9">
         <v>7</v>
       </c>
       <c r="Q59" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R59" s="9">
         <v>0</v>
@@ -10426,13 +10426,13 @@
         <v>0.04</v>
       </c>
       <c r="W59" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X59" s="8">
-        <v>0</v>
+        <v>0.0093</v>
       </c>
       <c r="Y59" s="7">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Z59" s="9">
         <v>0</v>
@@ -10486,10 +10486,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="7">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="F60" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G60" s="6">
         <v>0</v>
@@ -10498,10 +10498,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="8">
-        <v>0.032</v>
+        <v>0.0237</v>
       </c>
       <c r="J60" s="8">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="K60" s="8">
         <v>0</v>
@@ -10516,13 +10516,13 @@
         <v>0</v>
       </c>
       <c r="O60" s="9">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="P60" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="9">
         <v>0</v>
@@ -10537,16 +10537,16 @@
         <v>0</v>
       </c>
       <c r="V60" s="7">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="W60" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="8">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="9">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="7">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="8">
-        <v>0.0099</v>
+        <v>0.01</v>
       </c>
       <c r="J61" s="8">
         <v>0</v>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="9">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P61" s="9">
         <v>3</v>
@@ -10708,13 +10708,13 @@
         <v>98</v>
       </c>
       <c r="C62" s="7">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D62" s="7">
         <v>0</v>
       </c>
       <c r="E62" s="7">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="F62" s="7">
         <v>0</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="8">
-        <v>0.03</v>
+        <v>0.0305</v>
       </c>
       <c r="J62" s="8">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="9">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P62" s="9">
         <v>6</v>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="7">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="W62" s="9">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>99</v>
       </c>
       <c r="C63" s="7">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D63" s="7">
         <v>0</v>
       </c>
       <c r="E63" s="7">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="F63" s="7">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="8">
-        <v>0.0246</v>
+        <v>0.0202</v>
       </c>
       <c r="J63" s="8">
         <v>0</v>
@@ -10858,10 +10858,10 @@
         <v>0</v>
       </c>
       <c r="O63" s="9">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P63" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="9">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="7">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W63" s="9">
         <v>0</v>
@@ -10936,13 +10936,13 @@
         <v>100</v>
       </c>
       <c r="C64" s="7">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="D64" s="7">
         <v>0</v>
       </c>
       <c r="E64" s="7">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="8">
-        <v>0.0203</v>
+        <v>0.0213</v>
       </c>
       <c r="J64" s="8">
         <v>0</v>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="9">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="P64" s="9">
         <v>4</v>
@@ -11056,10 +11056,10 @@
         <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="F65" s="7">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="G65" s="6">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="I65" s="8">
-        <v>0.0199</v>
+        <v>0.0203</v>
       </c>
       <c r="J65" s="8">
-        <v>0.0199</v>
+        <v>0.0305</v>
       </c>
       <c r="K65" s="8">
-        <v>0.005</v>
+        <v>0.0051</v>
       </c>
       <c r="L65" s="7">
         <v>0</v>
@@ -11086,13 +11086,13 @@
         <v>0</v>
       </c>
       <c r="O65" s="9">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P65" s="9">
         <v>4</v>
       </c>
       <c r="Q65" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R65" s="9">
         <v>1</v>
@@ -11110,19 +11110,19 @@
         <v>0.06</v>
       </c>
       <c r="W65" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X65" s="8">
-        <v>0.0149</v>
+        <v>0.0203</v>
       </c>
       <c r="Y65" s="7">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="Z65" s="9">
         <v>1</v>
       </c>
       <c r="AA65" s="8">
-        <v>0.005</v>
+        <v>0.0051</v>
       </c>
       <c r="AB65" s="7">
         <v>0.25</v>
@@ -11164,16 +11164,16 @@
         <v>102</v>
       </c>
       <c r="C66" s="7">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="D66" s="7">
         <v>0</v>
       </c>
       <c r="E66" s="7">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="F66" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G66" s="6">
         <v>0</v>
@@ -11182,10 +11182,10 @@
         <v>0</v>
       </c>
       <c r="I66" s="8">
-        <v>0.0703</v>
+        <v>0.0709</v>
       </c>
       <c r="J66" s="8">
-        <v>0</v>
+        <v>0.0079</v>
       </c>
       <c r="K66" s="8">
         <v>0</v>
@@ -11200,13 +11200,13 @@
         <v>0</v>
       </c>
       <c r="O66" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P66" s="9">
         <v>9</v>
       </c>
       <c r="Q66" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="9">
         <v>0</v>
@@ -11392,16 +11392,16 @@
         <v>104</v>
       </c>
       <c r="C68" s="7">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="D68" s="7">
         <v>0</v>
       </c>
       <c r="E68" s="7">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="F68" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G68" s="6">
         <v>0</v>
@@ -11410,10 +11410,10 @@
         <v>0</v>
       </c>
       <c r="I68" s="8">
-        <v>0.0465</v>
+        <v>0.0882</v>
       </c>
       <c r="J68" s="8">
-        <v>0</v>
+        <v>0.0882</v>
       </c>
       <c r="K68" s="8">
         <v>0</v>
@@ -11428,13 +11428,13 @@
         <v>0</v>
       </c>
       <c r="O68" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="P68" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q68" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R68" s="9">
         <v>0</v>
@@ -11449,16 +11449,16 @@
         <v>0</v>
       </c>
       <c r="V68" s="7">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="W68" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X68" s="8">
-        <v>0</v>
+        <v>0.0882</v>
       </c>
       <c r="Y68" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z68" s="9">
         <v>0</v>
@@ -11512,10 +11512,10 @@
         <v>0</v>
       </c>
       <c r="E69" s="7">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="F69" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G69" s="6">
         <v>0</v>
@@ -11524,10 +11524,10 @@
         <v>0</v>
       </c>
       <c r="I69" s="8">
-        <v>0.0882</v>
+        <v>0.05</v>
       </c>
       <c r="J69" s="8">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="K69" s="8">
         <v>0</v>
@@ -11542,13 +11542,13 @@
         <v>0</v>
       </c>
       <c r="O69" s="9">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P69" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q69" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" s="9">
         <v>0</v>
@@ -11563,16 +11563,16 @@
         <v>0</v>
       </c>
       <c r="V69" s="7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W69" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X69" s="8">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="Y69" s="7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Z69" s="9">
         <v>0</v>
@@ -11626,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="7">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="F70" s="7">
         <v>0.02</v>
@@ -11638,10 +11638,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="8">
-        <v>0.0833</v>
+        <v>0.0811</v>
       </c>
       <c r="J70" s="8">
-        <v>0.0833</v>
+        <v>0.0811</v>
       </c>
       <c r="K70" s="8">
         <v>0</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="9">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P70" s="9">
         <v>3</v>
@@ -11683,7 +11683,7 @@
         <v>3</v>
       </c>
       <c r="X70" s="8">
-        <v>0.0833</v>
+        <v>0.0811</v>
       </c>
       <c r="Y70" s="7">
         <v>0.02</v>
@@ -11734,13 +11734,13 @@
         <v>107</v>
       </c>
       <c r="C71" s="7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D71" s="7">
         <v>0</v>
       </c>
       <c r="E71" s="7">
-        <v>1.38</v>
+        <v>2.27</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -11752,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="8">
-        <v>0.069</v>
+        <v>0.0909</v>
       </c>
       <c r="J71" s="8">
         <v>0</v>
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="P71" s="9">
         <v>2</v>
@@ -11854,10 +11854,10 @@
         <v>0</v>
       </c>
       <c r="E72" s="7">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="F72" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G72" s="6">
         <v>0</v>
@@ -11866,10 +11866,10 @@
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <v>0.087</v>
+        <v>0.0741</v>
       </c>
       <c r="J72" s="8">
-        <v>0</v>
+        <v>0.0741</v>
       </c>
       <c r="K72" s="8">
         <v>0</v>
@@ -11884,13 +11884,13 @@
         <v>0</v>
       </c>
       <c r="O72" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P72" s="9">
         <v>2</v>
       </c>
       <c r="Q72" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R72" s="9">
         <v>0</v>
@@ -11908,13 +11908,13 @@
         <v>0.02</v>
       </c>
       <c r="W72" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X72" s="8">
-        <v>0</v>
+        <v>0.0741</v>
       </c>
       <c r="Y72" s="7">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Z72" s="9">
         <v>0</v>
@@ -11968,10 +11968,10 @@
         <v>0</v>
       </c>
       <c r="E73" s="7">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="F73" s="7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G73" s="6">
         <v>0</v>
@@ -11980,10 +11980,10 @@
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <v>0.037</v>
+        <v>0.0385</v>
       </c>
       <c r="J73" s="8">
-        <v>0</v>
+        <v>0.0385</v>
       </c>
       <c r="K73" s="8">
         <v>0</v>
@@ -11998,13 +11998,13 @@
         <v>0</v>
       </c>
       <c r="O73" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P73" s="9">
         <v>1</v>
       </c>
       <c r="Q73" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" s="9">
         <v>0</v>
@@ -12022,13 +12022,13 @@
         <v>0.03</v>
       </c>
       <c r="W73" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73" s="8">
-        <v>0</v>
+        <v>0.0385</v>
       </c>
       <c r="Y73" s="7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Z73" s="9">
         <v>0</v>
@@ -12802,7 +12802,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" s="9">
         <v>0</v>
@@ -12820,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="W80" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X80" s="8">
         <v>0</v>
@@ -14698,7 +14698,7 @@
         <v>133</v>
       </c>
       <c r="C97" s="7">
-        <v>225.03</v>
+        <v>223.98</v>
       </c>
       <c r="D97" s="7">
         <v>626.04</v>
@@ -14707,10 +14707,10 @@
         <v>0.94</v>
       </c>
       <c r="F97" s="7">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="G97" s="6">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H97" s="8">
         <v>0.8333</v>
@@ -14719,31 +14719,31 @@
         <v>0.0033</v>
       </c>
       <c r="J97" s="8">
-        <v>0.0033</v>
+        <v>0.005</v>
       </c>
       <c r="K97" s="8">
-        <v>0.0002</v>
+        <v>0.0004</v>
       </c>
       <c r="L97" s="7">
-        <v>6.25</v>
+        <v>6.22</v>
       </c>
       <c r="M97" s="6">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="N97" s="8">
         <v>0</v>
       </c>
       <c r="O97" s="9">
-        <v>240608</v>
+        <v>238850</v>
       </c>
       <c r="P97" s="9">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="Q97" s="9">
-        <v>783</v>
+        <v>1190</v>
       </c>
       <c r="R97" s="9">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="S97" s="9">
         <v>36</v>
@@ -14755,28 +14755,28 @@
         <v>1</v>
       </c>
       <c r="V97" s="7">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="W97" s="9">
-        <v>618</v>
+        <v>938</v>
       </c>
       <c r="X97" s="8">
-        <v>0.0026</v>
+        <v>0.0039</v>
       </c>
       <c r="Y97" s="7">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="Z97" s="9">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="AA97" s="8">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="AB97" s="7">
-        <v>5.92</v>
+        <v>2.36</v>
       </c>
       <c r="AC97" s="7">
-        <v>8.33</v>
+        <v>3.29</v>
       </c>
       <c r="AD97" s="7">
         <v>474.5</v>
@@ -14788,22 +14788,22 @@
         <v>409.56</v>
       </c>
       <c r="AG97" s="6">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="AH97" s="6">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AI97" s="9">
         <v>26</v>
       </c>
       <c r="AJ97" s="8">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="AK97" s="8">
         <v>0.0001</v>
       </c>
       <c r="AL97" s="7">
-        <v>8.65</v>
+        <v>8.61</v>
       </c>
     </row>
   </sheetData>
